--- a/rhla_analysis/rhla1_6_exp_result/k3.xlsx
+++ b/rhla_analysis/rhla1_6_exp_result/k3.xlsx
@@ -457,142 +457,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.02315693749335413</v>
+        <v>0.02134315764528818</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2545827114471339</v>
+        <v>0.2537739529640058</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1568627450980392</v>
+        <v>0.1072640868974881</v>
       </c>
       <c r="D2" t="n">
-        <v>10.99379879227109</v>
+        <v>11.89017844414555</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.02268809859105463</v>
+        <v>0.02304274676046838</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2819378178575302</v>
+        <v>0.2819557423242089</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1504688832054561</v>
+        <v>0.1018329938900204</v>
       </c>
       <c r="D3" t="n">
-        <v>12.42668338759298</v>
+        <v>12.23620366335518</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.01073615304695429</v>
+        <v>0.0100402232684634</v>
       </c>
       <c r="B4" t="n">
-        <v>0.24530958931996</v>
+        <v>0.242480415735732</v>
       </c>
       <c r="C4" t="n">
-        <v>0.149616368286445</v>
+        <v>0.1076035302104549</v>
       </c>
       <c r="D4" t="n">
-        <v>22.84892812603404</v>
+        <v>24.15089876510707</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01296473986270013</v>
+        <v>0.01154342611568266</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2402556622164065</v>
+        <v>0.2426038961018206</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1513213981244672</v>
+        <v>0.1025118805159538</v>
       </c>
       <c r="D5" t="n">
-        <v>18.53146802487165</v>
+        <v>21.01662831039599</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.01195603716018144</v>
+        <v>0.01242705361639276</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2496963723173268</v>
+        <v>0.2465965989633876</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1615515771526002</v>
+        <v>0.1171079429735234</v>
       </c>
       <c r="D6" t="n">
-        <v>20.88454301136829</v>
+        <v>19.8435290114221</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.01257045164066507</v>
+        <v>0.0144539166038874</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2312188635904479</v>
+        <v>0.2347250229277361</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1572890025575447</v>
+        <v>0.1079429735234216</v>
       </c>
       <c r="D7" t="n">
-        <v>18.39383899640178</v>
+        <v>16.23954457192637</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.02375404042268884</v>
+        <v>0.02369103309291956</v>
       </c>
       <c r="B8" t="n">
-        <v>0.232321663618588</v>
+        <v>0.2359263941566409</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1611253196930946</v>
+        <v>0.1096401900882553</v>
       </c>
       <c r="D8" t="n">
-        <v>9.780300929213052</v>
+        <v>9.958467966816995</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.01847825702562833</v>
+        <v>0.01700277392120664</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3040202523674055</v>
+        <v>0.3026598213956791</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1560102301790281</v>
+        <v>0.1008146639511202</v>
       </c>
       <c r="D9" t="n">
-        <v>16.45286413895781</v>
+        <v>17.80061434670891</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.01171936189189443</v>
+        <v>0.01250357650265916</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2680807436082525</v>
+        <v>0.2657018748534236</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1589940323955669</v>
+        <v>0.1113374066530889</v>
       </c>
       <c r="D10" t="n">
-        <v>22.87502904007662</v>
+        <v>21.25006991374958</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.01211204089782059</v>
+        <v>0.0124550970500573</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2242140272454671</v>
+        <v>0.2262074067657979</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1530264279624893</v>
+        <v>0.1052274270196877</v>
       </c>
       <c r="D11" t="n">
-        <v>18.51166365247425</v>
+        <v>18.16183413558847</v>
       </c>
     </row>
   </sheetData>

--- a/rhla_analysis/rhla1_6_exp_result/k3.xlsx
+++ b/rhla_analysis/rhla1_6_exp_result/k3.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.02134315764528818</v>
+        <v>0.02134315764528822</v>
       </c>
       <c r="B2" t="n">
         <v>0.2537739529640058</v>
@@ -466,12 +466,12 @@
         <v>0.1072640868974881</v>
       </c>
       <c r="D2" t="n">
-        <v>11.89017844414555</v>
+        <v>11.89017844414552</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.02304274676046838</v>
+        <v>0.02304274676046834</v>
       </c>
       <c r="B3" t="n">
         <v>0.2819557423242089</v>
@@ -480,12 +480,12 @@
         <v>0.1018329938900204</v>
       </c>
       <c r="D3" t="n">
-        <v>12.23620366335518</v>
+        <v>12.2362036633552</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0100402232684634</v>
+        <v>0.01004022326846345</v>
       </c>
       <c r="B4" t="n">
         <v>0.242480415735732</v>
@@ -494,7 +494,7 @@
         <v>0.1076035302104549</v>
       </c>
       <c r="D4" t="n">
-        <v>24.15089876510707</v>
+        <v>24.15089876510694</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.01242705361639276</v>
+        <v>0.01242705361639263</v>
       </c>
       <c r="B6" t="n">
         <v>0.2465965989633876</v>
@@ -522,12 +522,12 @@
         <v>0.1171079429735234</v>
       </c>
       <c r="D6" t="n">
-        <v>19.8435290114221</v>
+        <v>19.8435290114223</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0144539166038874</v>
+        <v>0.01445391660388742</v>
       </c>
       <c r="B7" t="n">
         <v>0.2347250229277361</v>
@@ -536,12 +536,12 @@
         <v>0.1079429735234216</v>
       </c>
       <c r="D7" t="n">
-        <v>16.23954457192637</v>
+        <v>16.23954457192635</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.02369103309291956</v>
+        <v>0.02369103309291986</v>
       </c>
       <c r="B8" t="n">
         <v>0.2359263941566409</v>
@@ -550,26 +550,26 @@
         <v>0.1096401900882553</v>
       </c>
       <c r="D8" t="n">
-        <v>9.958467966816995</v>
+        <v>9.958467966816874</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.01700277392120664</v>
+        <v>0.01700277392120667</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3026598213956791</v>
+        <v>0.302659821395679</v>
       </c>
       <c r="C9" t="n">
         <v>0.1008146639511202</v>
       </c>
       <c r="D9" t="n">
-        <v>17.80061434670891</v>
+        <v>17.80061434670888</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.01250357650265916</v>
+        <v>0.01250357650265919</v>
       </c>
       <c r="B10" t="n">
         <v>0.2657018748534236</v>
@@ -578,12 +578,12 @@
         <v>0.1113374066530889</v>
       </c>
       <c r="D10" t="n">
-        <v>21.25006991374958</v>
+        <v>21.25006991374952</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0124550970500573</v>
+        <v>0.01245509705005732</v>
       </c>
       <c r="B11" t="n">
         <v>0.2262074067657979</v>
@@ -592,7 +592,7 @@
         <v>0.1052274270196877</v>
       </c>
       <c r="D11" t="n">
-        <v>18.16183413558847</v>
+        <v>18.16183413558844</v>
       </c>
     </row>
   </sheetData>
